--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/20_Burdur_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/20_Burdur_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC572EA2-4D6B-46D3-A2B4-5455DAB63688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2D65AB-25F4-4EB1-96AB-AA4B135761BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="662" xr2:uid="{C0CD1617-AADD-42F9-A9A5-05EF6048E23D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{24B55587-F342-4552-AD15-D432B322A8DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C4AE32C0-4AB0-4A6E-AF1C-553891AB542C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D808552E-71D5-4643-A342-7032C92CFA23}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{98580B9C-E8A7-45BC-9C2A-BBDDF037DB9C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{67414B05-D829-43AD-9D9A-C53EA93A927E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{01527F52-9E4C-437D-9565-31E58AED400A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2E038BAD-8055-4C1B-B5C4-4538046B0010}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B526333C-A8E0-45F0-AE24-434241D256E9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A9E9F7EA-68BC-40BB-BFD9-6139E92A46B1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E057047E-DF3B-4C02-902B-AC41D40F3F82}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{EAC4ADEC-1FD7-4B41-875D-2A8708BBC246}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C161AAF9-E54A-4C37-A5BD-DBC18959D82F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8AAC15C2-0A3D-4500-9FF8-8E0EB5B57411}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{B487DFDE-EFA5-41BD-B879-B70A2C222EE4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B1E9E266-E1E5-482E-8CA0-7E1003960E67}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E10EE-4836-433E-B89B-00B10EFB9218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845CED9B-E987-4B1B-B958-5FE25F4619A6}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2632,17 +2632,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23269EE3-2827-46F5-AEC9-57926DBE0C1E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2B29D4B-9842-42AC-B3D2-ECD9D09E7E10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{244C2EFB-B8AC-40B4-A396-A83DB8371023}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01BB7B52-8269-46EB-B7F5-9766EBABD8D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BCCFA52-D407-4FD4-B3A1-A4900E16E835}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B814205-1403-4144-9E3E-1ED5E9BA3746}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09F6F45C-8F2F-407D-8FD9-7532C24A979D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0FF012F-5058-40D3-812D-BF230CF1CA95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{71C49185-CB59-4F85-AE92-DF89327077A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2609ADD7-A69D-46B9-8EC2-AB9DC5E56054}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5947A768-4DBD-41F0-9DAF-4205B567068A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{741F4A3C-8F42-4AC2-BB9A-65BC34E06C0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15E67EC1-C6FD-461C-96AA-BB3D8738671A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{58554EFF-16CD-41EB-87E7-26FB14191283}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1FD086B1-2FBA-4B70-84B3-F12B259C8FDB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{698F4F02-7674-4C00-A9C9-32BF498A0686}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{90C5F479-A5A5-4659-8083-609999740234}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D5E48CC-E2F2-4485-9A4D-051EBD60D5CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{660D0625-FB19-43E3-AB1F-FB608E5F1DC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{185611C3-55EA-4F84-B6CD-39626681884C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2A014B93-E9E0-457B-BD4C-B5890133FE24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B665C709-3CAB-46DC-83BF-9063D0EED41B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2655,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDA1143-D7D6-4464-A16A-B513BD3202B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14700DC1-5934-4BC6-B943-263111DAF154}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3923,17 +3923,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B23ACEE7-067E-44ED-A620-760FF4E1CE5F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8A92205-9208-4337-965F-2D6FB77037E2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D28EC97-4A33-4220-B079-3D00B84640FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DC1DDFC-0B06-4FDC-A541-FC9D47CBE819}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94274EE2-68C7-4064-9463-B7A80350B8E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDA993BC-50F1-4A2B-A629-80BE8D8AC733}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28643009-74F4-458E-B34B-D8B988FDD51D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3271D7E6-1719-4B8B-8A68-3B8DA1F8889F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E07A4F39-BBC0-47C6-A0F0-46D58F19ADCC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{945717CA-E7DB-447C-8E29-88D05C047FAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D991E1C1-2E2B-476F-AF4E-6CA349254D57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79D9D32F-A32C-46CB-A449-95C30A20DD3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{806FF230-6AB4-4688-AA73-A624916EB692}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA6A6DEB-7095-4DBB-9F26-3E5E204C8800}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D132F7B-29CF-4AE9-9F7A-4939E70C1155}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE66F8CF-9AB2-4BC3-AE6B-BC00B39AE438}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15E4AE45-9735-4555-B031-D589486027A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{039498C0-B62A-44F6-91BB-6C8E1BDB383E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E0BA86D-3B0C-475D-96D4-DD08DCF26FAA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A9D053E6-7016-4D5D-BFE7-F4436BD4C8FB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F43A1739-D9B1-417B-9BB1-DFA410B7AEBF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8605EE7F-EE58-4AF6-9332-628B3B260678}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3946,7 +3946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517632C2-2463-492B-B30D-5A416094C804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B78A4EA-865E-4F76-BF6E-6D2D3201BE68}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5202,17 +5202,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B13AD6C-F5E9-44A8-896D-6DDA4ED15922}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3E11A8E-4C0B-481E-9271-90C7A7D73CB7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{962C5CD6-2CD1-4D6E-B300-856E156AE190}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83DC9A65-0387-4A76-A44B-0332F8683BAF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E729F094-54F2-4803-A01B-0FA3CFFA38A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CADA0403-C679-4AB2-B742-EF60BA10046D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B88F7155-B759-472B-8141-5D89FF597E7A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CE522AF-C5B4-46CA-8DCE-FAEC862CDE2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{15F0F4CC-A756-4D4A-B601-E510F240DEBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E3F97283-E483-4D18-97B1-0185327CF540}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98B8D972-5575-4070-934A-80FC1E4DC258}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2C725AA-270F-4A95-9CCC-F8ED73378861}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5391E5A7-534C-4053-BAC4-264E860FE574}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4AC757B3-8EFF-4EAA-B06F-06BA1EC27840}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEF48F9B-5ED4-4CA7-85B6-DD0193F566A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDCB3B81-17CC-4B6F-80E2-F0CDE20ED86B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA4D093C-CECB-468B-84E8-835DE1918DAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{227B420E-EA97-4EDB-8CED-E1A67A2109FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A6351A5-B2C6-445D-9AC8-0CCB9A5B86BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7F7B049A-E27B-4BF1-A070-F069427A5B36}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1D6E08BC-76A3-4A78-8BF1-6A98EF9408AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF7C1ADD-29A4-43B5-AC31-485A99E6AB0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5225,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF29FAE-D6EC-42C7-8DCF-A85DA695786F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F0E745-54EC-4FB3-B16D-CDDF3EDE8447}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6475,17 +6475,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD5A44EF-C564-4064-B68C-7BA8709156C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6F4A631-C847-4F02-8626-1C2608D6B4BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63D1DFE0-EF0B-4307-8281-01518C176D17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2BD309E-D07A-4A92-8BB8-9BBA13B5993E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A062862E-478F-4120-81AF-0B013B404A3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAD7448E-BFEF-4449-AE0C-8BF400E98A4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A95A0458-9F3B-4830-9179-F4177B3AAFAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB765D27-00CA-40F0-BB1C-77E77E9B463C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1F4222DA-BA83-4B18-B4D1-2B2C0331856D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E62ED0C7-A731-4508-82B2-18EAFCF79EDC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B967165B-5DC2-42C5-99C8-DE5C4F9F3812}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C69F1D84-9BAB-44BA-8EF5-A46C4E346E94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5889CCE-ACAE-41E6-BC99-AB2672EA5540}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ADEF7850-8757-47D6-9A6B-2EC12A6EE108}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6E0E231-B00F-4BCC-B2E2-A69E31F68CC5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE32AC94-6927-4082-BE5A-AB669049D213}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E939331E-4BB8-4F8B-832A-4064FE441289}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4434B0B8-4D0D-4FEE-AFD8-E7F4CD4EEB77}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20C24808-81CB-48A7-A4D1-F7CAF5930B2A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EBA7D00A-EF3E-4CCD-BF93-35D7DC847108}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D62B694A-968F-4242-9D6F-80D92D68136E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0803DFBD-9825-4811-A3B4-1DB41A95DE03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6498,7 +6498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893C0EEE-FF53-43F6-92BE-9F750CA9E727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD47AA6-FC63-447D-A0F1-408624300CC2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7775,17 +7775,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{677D3A35-3B5E-4F8A-84A8-E007990158E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E2AF8B7-EEBC-4ECD-BD75-EC56506F8CE2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A8E9B1E-1A95-4A51-970F-9A457518A463}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63F80031-5E1B-423C-A928-BF28975BC555}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF30AA74-9726-4368-821C-721480C1A5B5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44F43802-2854-4B09-BC7F-DDAB6E549569}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{980E2CD4-FED5-4DBF-B868-679DF1E49C84}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F94CE8BF-D081-4977-96B1-A07AD704D0BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E15C5BC5-B973-430B-87CF-FB0E370C9A23}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{49E682E2-20A5-4DB0-AF69-E20C978FD851}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC7EE7C8-6084-44A8-B8FB-CE7F63489884}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B3DDE86-161C-4544-8A25-953DD285B033}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{249FBAA9-9DAE-4B06-84E8-F0A90C335EFF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2EAED321-211C-427C-9367-B34B2CDC1B81}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76E8313E-D58F-4C4F-B20D-3F4179EFC8CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DF6E484-AEDD-4ADD-8562-E128D414CBB4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{850042AC-6528-43B7-963F-988C58EEE9BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3DBD971-0C89-45B6-BAAC-8AFD28B1DBB5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FAD9616-71E2-487F-B1B2-6ACDBF393A55}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5626B3B-25C5-4234-9042-0AB7F56B1EF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{764F35A4-FF70-401F-9D3C-92D218BFFC32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BC28896-9FCE-449F-A5D2-BC98D4C8D96A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7798,7 +7798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C82DD7-08D7-4A1C-96E3-33B42278BDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF1A9C-B90A-4EB1-89CB-8664448445DE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9075,17 +9075,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B8E0635-7DBA-4762-9A71-22677C59169A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBFF46AA-0791-40A8-86A5-A21B95C1F3DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4536F3BA-8B4A-42B7-8713-A5C4AFB25494}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60658D7A-4B2C-48DA-A530-17B314A4C0A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7C25CDF-2C24-4868-A8CA-275FAC4F2CA4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{863C04B3-FE6C-484E-9B97-88A60617B4A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{357DDC0A-9B9E-454E-95E1-0C61222E81CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{902A100C-D7F6-4D49-836D-B444C7934290}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6EF2E042-B92E-41A1-9004-49E58F3BA33F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{124B0756-6983-48FC-9297-306DF016B6BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38694E21-98D2-43F5-A196-32AB827DFA16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2D75BB3-B3B9-4132-9630-CD6E709F1675}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19AAF143-1B07-4C23-A8E0-D473D7B027A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA311AC6-2273-4250-96A6-F24DCF326661}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88EB71D8-940C-4A71-A26E-244D4CCFCABA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A6E75BC-2175-419B-8516-291F1CF806DE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AB79F6B-453E-4DD0-A332-54E530A9A15B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{372B4C42-DE38-4EDE-B725-A730D9CC4C5C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C8D2F1F-D628-40D5-B75B-BCC4CE147390}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BF926F08-C08F-47DF-8B58-D6337786C76B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DC79628F-B5A3-4649-A7C2-64FA01926A6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB83B97C-B9A6-4D73-A72C-CD0872C4B62F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9098,7 +9098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE250816-71E1-489A-B912-03D5D2DE4F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC40F96-598D-4043-85CB-E0312C33BF6A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10375,17 +10375,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5E249CF-822D-4882-AD4B-E5C08029591B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F3F0B13-3A93-4D8A-AF9A-A0C89C24B90A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0806AC7-B0B6-4B60-8A5F-15D8434C0291}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5212F46A-6924-4FB0-A553-BC10AE066536}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E2F1B67-411A-4E21-A6C8-10DA66C7052F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91D8B563-2A18-45CE-B0AD-E1FF64A9B17A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E3ECDAB-0CB0-4505-A46F-39EE131E5919}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67D07A7A-E2E3-43A1-86A3-502C343893D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{76DA5FC5-FB7D-47FC-B7A3-0367B465C06D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{20B86C02-85A3-4CBF-A2B4-B3BB7F66F489}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2A65FB4-C486-4252-8B3B-836102BDCBEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B38A8E4E-8CC3-4EB9-A5BE-1C11B92E38D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12D3D90E-8338-46C7-A17A-F58793E4AEC5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE43B677-ECDF-4B4B-A641-8D091C82389B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51D37DF9-0930-47DF-BD4C-E53177F95262}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBDC44BB-7C17-4374-8D2D-482BF55677D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A2C00BD-ED5D-4B0E-B8E2-5795E0262E96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96611566-B79C-410E-8571-1038C5B68B33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9ED9CD8E-1FE4-4803-9609-79CF69F5193E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1F9A7D01-3469-4036-934D-6B4A21C266B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D6F9E09D-E575-440B-9EB7-222FC71E053F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B8C3275-79B0-4A3B-8326-D972FF097372}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10398,7 +10398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A5D4A9-F3C9-4B0C-BB42-8B74DC0BCACA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1B303-41CD-465D-886A-8320CD30BAF0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11675,17 +11675,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18BD08E4-37E3-4553-A3F8-060F2DC2DAB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7743FA45-B52B-4124-AC98-2268E7A94E58}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{966A26D3-E0A4-4304-AD48-DFB0E2CAE244}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7980D1B-D583-458A-A316-3B5129759DF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F333F25F-A504-40E5-8787-8D66FC73F15F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1FFDD1C-FD3B-49A0-85EF-1594A56E9DB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B6E9E1D-D820-4574-B222-02E79506FD92}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDCCEAC6-6E47-4A7B-8987-3CFA70FAD08C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3C31188A-A869-45D1-90DC-E0666D5A2C43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4F199DC0-9D95-4705-B9D8-EBEC7D295A0D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C207677-6B1C-4275-B417-3D1C197896BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04D05F5E-0CDB-4F17-9CFA-803BB8E581F8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{121DAD93-16B7-434D-854B-7CDD9C2A8D97}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D199E842-71E5-4A61-B360-363E075A801D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FB44E9A-828B-40AF-94E8-C74629BBC84C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{197CED8C-99D5-424C-8070-D53161A0BCBB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2726F4A4-08C0-40A6-BEFE-0CC72DF89491}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CCE025E-64DD-47F9-95DB-5078FAC66DB9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A637D179-EB5A-4ECD-AE51-945C8F9975EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E35DF49-0BA7-43C9-A287-04AE6A471A26}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2F765B7D-3A6D-4993-9FD3-AA610F56B12D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C2F8A41-ADCD-4FA1-BA18-512037C09D03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11698,7 +11698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCA378-7CCC-4099-B05A-F4025252EF46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336D1132-22EB-4219-B793-4493B89998DA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12975,17 +12975,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29813C44-3C31-4E2A-9731-1818D2D43157}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{199254ED-49F9-4B22-9827-EC4A3D72707A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{37A14B84-3959-47AD-B542-2592301578A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CCA6C03-5833-4CAF-A891-67322C4CEBEC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8673856C-4DCF-4031-B381-F4001065CD0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{683B3B77-6F03-43F8-AFAC-39ECA312D4AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55B53AEC-717D-4748-9566-B255624665F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D10196E8-6383-48CA-990B-F313ED35064E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{63CC40FC-C0FF-4B9C-9FE9-583157771F65}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF7CE7C2-F250-48F2-B0E2-08C7C0014F18}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA974945-7F28-44EC-8841-830CD663C5DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0ADDCD1E-B62A-4FAC-BC5D-39E046D366BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4A58C66-2C6C-4C1B-9DE4-F8AF9181569D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AED90CF7-467F-41F0-AB87-7C6C7B817703}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F174F09-A8AA-4DA5-87A3-37710E8A88A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32B56EB9-4E49-429D-896C-AD6136AF5A1A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D507D071-08F0-4C7F-A083-98968548D2B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{919BDA6A-8805-4267-8206-2867400E8760}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2DB383F-F832-4870-BFB7-6DC4317086E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BD9A7FFB-B650-43A0-AE48-38116D159AC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7FE528FB-9544-4559-992C-392AF8A0B788}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B0EB7F6-6A05-4089-8BCE-13F23E9919EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12998,7 +12998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C98389E-9656-4E58-B4E9-361A230A18BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF3AEE5-5869-4AC7-BE05-2AA9CD1ABF80}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14275,17 +14275,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04FFF1F0-4F26-4339-A6A2-47D0C04F4CFF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B8EC97F-B2E8-4114-A8EB-A7C7821063D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8094592-FD48-4E04-8E70-545A87A995C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85BCD63F-1107-4575-B7C0-C81C00457EB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1EB06AF-676D-4A96-9CB4-2C3CCEBF622D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E174C63-B972-42C9-8772-24381C4A6606}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAAFF020-F0DE-41A4-A926-4876283335B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D91E5F3-EC5B-4E78-A5A1-8960055ECE9C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EC3117AA-0E84-4C59-999E-1C19A038A079}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B75748A4-0981-46A8-9367-4D5FD813DF6B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C14BB87F-BEC2-42D2-9385-76C858FF204A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4FFF797-106C-487E-B425-EECD644C371A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12322189-71FE-4680-8E01-1BD455D35FF3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1523157-1B76-44F3-9F0F-69A3817A3750}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13606E33-C807-4DB4-B8F0-71A0F090FACF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A41C700D-A5B0-4A24-BB40-F9A17DF40823}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80F5458A-44AC-4BC5-BCC1-7FFC5A1BB5EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E098507F-7B3D-4C82-B00B-B0E8EEFC9639}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1DFF079-B368-40D6-8980-710B79C6561E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{265ACD38-4090-4901-B5BC-A3429C5F894C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{573CB776-262A-412C-A555-C906DFC5F5A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6DA196B-4AB3-432A-8A12-99DFF336075E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14298,7 +14298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591A888E-F7E8-47D7-806D-12E7A5B5108F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A29A0D0-C958-4C52-935F-433C8DE4D862}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15576,17 +15576,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63ED07FD-C008-461B-A337-78B44FC2C651}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{521DBE35-27F6-4030-BBAE-B7E42075E1CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F41F059E-83C4-4E88-A9B4-47007591B06E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0389FD20-34DB-4052-A6E2-31EE9B03CAA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51DA0741-744A-4F45-A912-688041FC35B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC0EC6E2-F2F7-439C-A3BB-F24311E02F18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D942698E-B945-4CF3-8DC0-43CA39B0AC7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0CCB538-2414-4026-A92A-7DDBC38D056F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E43D2D9E-99A8-4E60-BD58-F157B7ABA446}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{07381A8D-1920-484D-A10E-97B2B7C60E24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A773E3C-042A-449F-8318-D6ECFBE2F848}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEAA8C0B-4509-48FC-966D-6C249D207371}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27FA93FC-6F64-4684-BEAC-6F30BE963C2F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A574C11-D6FD-4B0C-9FA6-0D14DD799AD4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B9E2A84-D865-4002-A769-929589B3EA1A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6205CD62-1B01-49C9-9AFD-5E3D6A17977A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1ABAF75-A725-4A3E-BC36-0B6D313F6B75}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCB18D40-63C9-4A7A-9547-4C2EEBD78CAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E3442AB-DC23-448C-95C0-F2AA4433E00D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6563E05C-6E72-400E-80A3-6CE12719F143}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DDDFE7B1-EDFA-400B-BA15-15A7F058CA98}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{974EFD3D-4192-4A20-8F83-737BEA6884C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15599,7 +15599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80FE33C-DDFD-4440-A01B-801241019ABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6FC130-246C-4B67-96DA-CF203D29009A}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16871,17 +16871,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B11562FA-0D55-4711-A4C2-D39479F579A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B1C21F4-1890-43FF-894B-39D1CAC05BED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E99022EC-2FEB-4553-9D93-BE1F78B982D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F63D1B7-6709-4F10-9A0B-BF35DDCA8894}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DE21523-2BA0-4433-86AA-FF5B380FB769}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{540F4A27-0D83-412F-A738-0023391E4C08}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74778C5F-E317-44BC-92B8-437C055EFF37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF59350A-3590-4898-8F69-232E53D947F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FAC36061-501D-4467-846E-1AB2DA5974CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3CA03CBC-FD3A-4CA8-8759-D12E4050C300}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43EF4A2A-2658-416C-B7D9-CA2FE793C0F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7045133A-94A1-477A-B0C2-5A9021AB6C0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4367CE8-FEBA-4E1E-848E-38949D3DB075}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C22CA942-E7D9-493C-B899-C0AFB5686888}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C1DC57B2-4AE6-48CA-B229-095BF184141B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFCBDA6D-9E32-4444-BC14-A490E2B426D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45C0017C-580D-4204-AD0F-FC330FE6664A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E236779E-71D2-4210-9CBF-CA3C8D7DC44A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{181FA093-8C5A-499E-9406-9AF6C1D05592}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B006140C-0A77-485B-B3E7-EC88F7AAB5FF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BC33CF4D-0C13-4973-9829-B51608E2860D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE78283C-AB08-40D4-AC9A-2A506547AADE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
